--- a/Test/Epsilon/MSE1000010.xlsx
+++ b/Test/Epsilon/MSE1000010.xlsx
@@ -435,28 +435,28 @@
         <v>0.1115457166596719</v>
       </c>
       <c r="E1" t="n">
-        <v>0.08419396730488127</v>
+        <v>0.09244136656206264</v>
       </c>
       <c r="F1" t="n">
-        <v>0.0811300647084455</v>
+        <v>0.08146299578641067</v>
       </c>
       <c r="G1" t="n">
-        <v>0.07896751750350478</v>
+        <v>0.07774059224126799</v>
       </c>
       <c r="H1" t="n">
-        <v>0.07576434142050725</v>
+        <v>0.06431710248978076</v>
       </c>
       <c r="I1" t="n">
-        <v>0.07522847905296828</v>
+        <v>0.06065300735976591</v>
       </c>
       <c r="J1" t="n">
-        <v>0.07467217953485873</v>
+        <v>0.06059038298001579</v>
       </c>
       <c r="K1" t="n">
-        <v>0.07454225290493367</v>
+        <v>0.0557030041181241</v>
       </c>
       <c r="L1" t="n">
-        <v>0.07422938492570165</v>
+        <v>0.0472704470783897</v>
       </c>
     </row>
   </sheetData>
